--- a/BackTest/2020-01-22 BackTest BCD.xlsx
+++ b/BackTest/2020-01-22 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1705,14 +1705,10 @@
         <v>17228.24425516001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>675.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>675.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1742,19 +1738,11 @@
         <v>17228.24425516001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>674.8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>675.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1783,19 +1771,11 @@
         <v>10160.36555516001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>674.8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>675.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1989,14 +1969,10 @@
         <v>12069.20455516001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>665.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
@@ -2026,19 +2002,11 @@
         <v>12069.20455516001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>669.4</v>
-      </c>
-      <c r="J49" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2067,19 +2035,11 @@
         <v>9177.501455160005</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>669.4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>665.1</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2108,14 +2068,10 @@
         <v>11257.50145516001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>666.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
@@ -2145,19 +2101,11 @@
         <v>11036.24425516001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>677.6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2186,19 +2134,11 @@
         <v>14006.24425516001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>667</v>
-      </c>
-      <c r="J53" t="n">
-        <v>666.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2227,14 +2167,10 @@
         <v>13878.18485516001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="J54" t="n">
-        <v>676.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
@@ -2264,19 +2200,11 @@
         <v>16470.50975516</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>670</v>
-      </c>
-      <c r="J55" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2305,19 +2233,11 @@
         <v>8413.004955160006</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>672.3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2346,19 +2266,11 @@
         <v>8414.799455160006</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>671</v>
-      </c>
-      <c r="J57" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2387,19 +2299,11 @@
         <v>8661.368855160006</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>675.8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2428,19 +2332,11 @@
         <v>8661.368855160006</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>676.7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2469,19 +2365,11 @@
         <v>8655.067555160007</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>676.7</v>
-      </c>
-      <c r="J60" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2513,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2552,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2591,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2630,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2669,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2708,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2747,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2786,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2825,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2864,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2903,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2942,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2981,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3020,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3059,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3098,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3137,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3176,14 +2962,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3215,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3254,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3293,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3329,19 +3091,11 @@
         <v>7222.141459690008</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>680</v>
-      </c>
-      <c r="J82" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3448,19 +3190,11 @@
         <v>7222.141459690008</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>680</v>
-      </c>
-      <c r="J85" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3489,19 +3223,11 @@
         <v>7222.141459690008</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>680</v>
-      </c>
-      <c r="J86" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3530,19 +3256,11 @@
         <v>7222.141459690008</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>680</v>
-      </c>
-      <c r="J87" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3574,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3610,19 +3322,11 @@
         <v>7222.141459690008</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>680</v>
-      </c>
-      <c r="J89" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3651,19 +3355,11 @@
         <v>6720.341459690007</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
-      </c>
-      <c r="I90" t="n">
-        <v>680</v>
-      </c>
-      <c r="J90" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3692,19 +3388,11 @@
         <v>6720.341459690007</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>675</v>
-      </c>
-      <c r="J91" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3733,19 +3421,11 @@
         <v>7300.341459690007</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>675</v>
-      </c>
-      <c r="J92" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3774,19 +3454,11 @@
         <v>9510.341459690007</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>679.7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3815,19 +3487,11 @@
         <v>9510.341459690007</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>680</v>
-      </c>
-      <c r="J94" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3856,19 +3520,11 @@
         <v>9510.341459690007</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>680</v>
-      </c>
-      <c r="J95" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3897,19 +3553,11 @@
         <v>11713.80955969001</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>680</v>
-      </c>
-      <c r="J96" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3938,19 +3586,11 @@
         <v>16704.85785969001</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>683.7</v>
-      </c>
-      <c r="J97" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3982,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4060,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4099,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4138,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4177,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4216,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4255,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4294,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4372,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4450,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4489,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4528,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4567,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4606,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4645,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4684,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4723,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4762,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4801,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4840,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4879,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4918,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4957,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4996,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5035,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5074,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5113,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5152,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5191,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5230,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5269,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5308,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5347,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5386,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5425,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5464,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5503,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5542,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5581,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5620,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5659,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5698,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5737,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5776,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5815,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5854,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5893,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5932,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5971,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6010,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6049,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6088,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6166,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6205,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6244,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6283,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6322,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6361,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6400,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6439,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6478,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6514,23 +5764,15 @@
         <v>82648.99733554</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>676.8</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>1.058386524822695</v>
-      </c>
-      <c r="M163" t="n">
-        <v>1.044955645767554</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6555,7 +5797,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6588,7 +5830,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6621,7 +5863,7 @@
         <v>96395.58122967</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6786,7 +6028,7 @@
         <v>101918.88932967</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6819,7 +6061,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6852,7 +6094,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6885,7 +6127,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6918,7 +6160,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6951,7 +6193,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6984,7 +6226,7 @@
         <v>112392.47288957</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7017,7 +6259,7 @@
         <v>110258.17038957</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7050,7 +6292,7 @@
         <v>109946.78858957</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7083,7 +6325,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7116,7 +6358,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7149,7 +6391,7 @@
         <v>99669.78528956998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7182,7 +6424,7 @@
         <v>98746.61558956998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7215,7 +6457,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7248,7 +6490,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7281,7 +6523,7 @@
         <v>90588.62278956998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7314,7 +6556,7 @@
         <v>93139.67048956998</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7347,7 +6589,7 @@
         <v>94262.68098956998</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7380,7 +6622,7 @@
         <v>98187.62598956999</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7413,7 +6655,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7446,7 +6688,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7479,7 +6721,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7512,7 +6754,7 @@
         <v>94614.13100793998</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7545,7 +6787,7 @@
         <v>94614.13100793998</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7578,7 +6820,7 @@
         <v>98125.15140793998</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7611,7 +6853,7 @@
         <v>98622.57760793998</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7644,7 +6886,7 @@
         <v>96953.76340793999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7677,7 +6919,7 @@
         <v>96973.76340793999</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7710,7 +6952,7 @@
         <v>98446.06660793998</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7743,7 +6985,7 @@
         <v>98446.06660793998</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7776,7 +7018,7 @@
         <v>98505.06660793998</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8172,7 +7414,7 @@
         <v>104713.54341823</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8205,7 +7447,7 @@
         <v>104713.54341823</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8238,7 +7480,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8271,7 +7513,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8304,7 +7546,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8337,7 +7579,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8370,7 +7612,7 @@
         <v>100020.23381823</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8403,7 +7645,7 @@
         <v>100026.5552976</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8436,7 +7678,7 @@
         <v>99976.5552976</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8469,7 +7711,7 @@
         <v>99979.82234305001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8502,7 +7744,7 @@
         <v>95331.03124305001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8535,7 +7777,7 @@
         <v>89033.19916368001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8568,7 +7810,7 @@
         <v>86533.19916368001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8601,7 +7843,7 @@
         <v>86533.19916368001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8634,7 +7876,7 @@
         <v>84803.68386368001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8667,7 +7909,7 @@
         <v>76673.34236368001</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8700,7 +7942,7 @@
         <v>72657.26616368002</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8733,7 +7975,7 @@
         <v>72557.26616368002</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8766,7 +8008,7 @@
         <v>72557.26616368002</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8799,7 +8041,7 @@
         <v>70379.12356368001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8832,7 +8074,7 @@
         <v>70379.12356368001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8865,7 +8107,7 @@
         <v>70379.12356368001</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8898,7 +8140,7 @@
         <v>70379.12356368001</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -13947,11 +13189,17 @@
         <v>-7410708.82699416</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>698</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13980,11 +13228,17 @@
         <v>-7410556.91149416</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>697.4</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14017,7 +13271,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14046,11 +13304,17 @@
         <v>-7404418.64179416</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>697.6</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14079,11 +13343,17 @@
         <v>-7405888.64179416</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>697.4</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14112,11 +13382,17 @@
         <v>-7405887.64179416</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>689.2</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14145,11 +13421,17 @@
         <v>-7406349.11929416</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>697.6</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14178,11 +13460,17 @@
         <v>-7406707.52189416</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>697.5</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14211,11 +13499,17 @@
         <v>-7407415.99059416</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14244,11 +13538,17 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>689.2</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14277,11 +13577,17 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>688.3</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14310,11 +13616,17 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>688.3</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14343,11 +13655,17 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>688.3</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14376,11 +13694,17 @@
         <v>-7408170.40589416</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>688.3</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14409,11 +13733,17 @@
         <v>-7407543.179294161</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>688</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14442,11 +13772,17 @@
         <v>-7407534.61615919</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>688.3</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14475,11 +13811,17 @@
         <v>-7408535.61615919</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>689</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14508,11 +13850,17 @@
         <v>-7408535.61615919</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>688.5</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14541,11 +13889,17 @@
         <v>-7408594.068959191</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>688.5</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14574,11 +13928,17 @@
         <v>-7405113.58875919</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>688</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14607,11 +13967,17 @@
         <v>-7405113.58875919</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>689</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14640,11 +14006,17 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>689</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14673,11 +14045,17 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>690</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14706,11 +14084,17 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>690</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14739,11 +14123,17 @@
         <v>-7404910.08665919</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>690</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14772,11 +14162,17 @@
         <v>-7404902.12305919</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>692.1</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14805,11 +14201,17 @@
         <v>-7404901.12305919</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>694.9</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14838,11 +14240,17 @@
         <v>-7404902.555859189</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>695</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14871,11 +14279,17 @@
         <v>-7405638.902959189</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>694.9</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14904,11 +14318,17 @@
         <v>-7405638.902959189</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>693.3</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14937,11 +14357,17 @@
         <v>-7408507.145959189</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>693.3</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14970,11 +14396,17 @@
         <v>-7407505.42585919</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>693</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15003,11 +14435,17 @@
         <v>-7407504.42585919</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>694.2</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15036,11 +14474,17 @@
         <v>-7407648.09665919</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>694.4</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15069,11 +14513,17 @@
         <v>-7407648.28635919</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>694.3</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15102,11 +14552,17 @@
         <v>-7406647.56615919</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>693</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15135,11 +14591,17 @@
         <v>-7406647.56615919</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>694.3</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15168,11 +14630,17 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>694.3</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +14669,17 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>690</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15234,11 +14708,17 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>690</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15267,11 +14747,17 @@
         <v>-7406653.76125919</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>690</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15300,11 +14786,17 @@
         <v>-7405137.25725919</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
-      </c>
-      <c r="I429" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>693.3</v>
+      </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15333,11 +14825,17 @@
         <v>-7405237.25725919</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>694.3</v>
+      </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15366,11 +14864,17 @@
         <v>-7405361.68255919</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>689</v>
+      </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15399,11 +14903,17 @@
         <v>-7405231.48255919</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>688</v>
+      </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15432,11 +14942,17 @@
         <v>-7406314.98885919</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>689</v>
+      </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15465,11 +14981,17 @@
         <v>-7406314.98885919</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>687</v>
+      </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15498,11 +15020,17 @@
         <v>-7410533.431093019</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>687</v>
+      </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15531,11 +15059,17 @@
         <v>-7414784.48689302</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>683.7</v>
+      </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15564,11 +15098,17 @@
         <v>-7414784.48689302</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>681.4</v>
+      </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15597,11 +15137,17 @@
         <v>-7415411.287593019</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>681.4</v>
+      </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15630,11 +15176,17 @@
         <v>-7415411.287593019</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>681.3</v>
+      </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15663,11 +15215,17 @@
         <v>-7410602.183293019</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>681.3</v>
+      </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15696,11 +15254,17 @@
         <v>-7410522.228493019</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>681.5</v>
+      </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15729,11 +15293,17 @@
         <v>-7410522.228493019</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>681.8</v>
+      </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15762,11 +15332,17 @@
         <v>-7406559.040493019</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>681.8</v>
+      </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15795,11 +15371,17 @@
         <v>-7403202.841593019</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>682.8</v>
+      </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15828,11 +15410,17 @@
         <v>-7403202.841593019</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>683.3</v>
+      </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15861,11 +15449,17 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>683.3</v>
+      </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15894,11 +15488,17 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>689</v>
+      </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15927,11 +15527,17 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>689</v>
+      </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15960,11 +15566,17 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>686</v>
+      </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15993,11 +15605,17 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>686</v>
+      </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -16026,11 +15644,17 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>680.1</v>
+      </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -16059,11 +15683,17 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>680.1</v>
+      </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16092,15 +15722,17 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>680.1</v>
       </c>
-      <c r="J453" t="n">
-        <v>680.1</v>
-      </c>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16129,15 +15761,15 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>680.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>685</v>
+      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L454" t="n">
@@ -16168,15 +15800,15 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>680.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>685</v>
+      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L455" t="n">
@@ -16207,11 +15839,17 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>685</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16240,11 +15878,17 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>686.4</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16273,11 +15917,17 @@
         <v>-7403982.653593018</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>686.4</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16306,11 +15956,17 @@
         <v>-7403956.536593018</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>689.9</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16339,11 +15995,17 @@
         <v>-7403967.736593018</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>690.9</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16372,11 +16034,17 @@
         <v>-7403969.736593018</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>689.9</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16405,11 +16073,17 @@
         <v>-7403965.736593018</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>685.6</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16438,11 +16112,17 @@
         <v>-7403964.736593018</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>686</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16471,11 +16151,17 @@
         <v>-7403963.736593018</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>686.1</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16504,11 +16190,17 @@
         <v>-7403962.736593018</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>686.2</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16537,11 +16229,17 @@
         <v>-7403912.736593018</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>686.3</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +16268,17 @@
         <v>-7403999.271593018</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>693</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16607,7 +16311,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16640,7 +16348,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16673,7 +16385,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16702,11 +16418,17 @@
         <v>-7406028.537293019</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>691.9</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16735,11 +16457,17 @@
         <v>-7405678.237293019</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>685.1</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16768,11 +16496,17 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>687</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16801,11 +16535,17 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>690.9</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16834,11 +16574,17 @@
         <v>-7416323.248293019</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>690.9</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16867,11 +16613,17 @@
         <v>-7416300.248293019</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>685.2</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16904,7 +16656,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16937,7 +16693,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16966,11 +16726,17 @@
         <v>-7411676.236753858</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>694.4</v>
+      </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16999,11 +16765,17 @@
         <v>-7411675.236753858</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>686.1</v>
+      </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -17032,11 +16804,17 @@
         <v>-7411856.285953858</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>693</v>
+      </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -17069,7 +16847,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -17098,11 +16880,17 @@
         <v>-7411640.386904659</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>692</v>
+      </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17131,11 +16919,17 @@
         <v>-7411734.986904658</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>692.9</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17168,7 +16962,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17201,7 +16999,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17234,7 +17036,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17267,7 +17073,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17300,7 +17110,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17333,7 +17147,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17366,7 +17184,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17395,11 +17217,17 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17428,15 +17256,13 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L493" t="n">
@@ -17467,9 +17293,11 @@
         <v>-7413270.424704659</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17504,9 +17332,11 @@
         <v>-7412968.112604659</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17541,9 +17371,11 @@
         <v>-7415208.112104659</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>702</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -18244,9 +18076,11 @@
         <v>-7372979.099394188</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>714.3</v>
+      </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18281,9 +18115,11 @@
         <v>-7372979.099394188</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>713.1</v>
+      </c>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18318,9 +18154,11 @@
         <v>-7373479.099394188</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>713.1</v>
+      </c>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18355,9 +18193,11 @@
         <v>-7373681.759094188</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>712.1</v>
+      </c>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18392,9 +18232,11 @@
         <v>-7373526.185394188</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>708</v>
+      </c>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18429,9 +18271,11 @@
         <v>-7374006.763294188</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>709</v>
+      </c>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18466,9 +18310,11 @@
         <v>-7374006.763294188</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>708</v>
+      </c>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18503,9 +18349,11 @@
         <v>-7374812.078894189</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>708</v>
+      </c>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18540,9 +18388,11 @@
         <v>-7375351.988394189</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>706.5</v>
+      </c>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18577,9 +18427,11 @@
         <v>-7375203.688394189</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>705.7</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18614,9 +18466,11 @@
         <v>-7375928.115594189</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>706.7</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18651,9 +18505,11 @@
         <v>-7375867.115594189</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>705.4</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18688,9 +18544,11 @@
         <v>-7376692.038294189</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>708</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18725,9 +18583,11 @@
         <v>-7375903.729694189</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>704.4</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18762,9 +18622,11 @@
         <v>-7375983.729694189</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>705.4</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18799,9 +18661,11 @@
         <v>-7375983.023394189</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>702.2</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18836,9 +18700,11 @@
         <v>-7375983.023394189</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>708</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18873,9 +18739,11 @@
         <v>-7376036.768994189</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>708</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18910,9 +18778,11 @@
         <v>-7374871.248204909</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>702.1</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18947,9 +18817,11 @@
         <v>-7375455.93270491</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>705.7</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18984,9 +18856,11 @@
         <v>-7376678.35710491</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>701.1</v>
+      </c>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -19021,9 +18895,11 @@
         <v>-7376743.837504909</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>700</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -19058,9 +18934,11 @@
         <v>-7372971.69590491</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>698.6</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -19095,9 +18973,11 @@
         <v>-7381339.32590491</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>699</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -19132,9 +19012,11 @@
         <v>-7381338.61840491</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>697.1</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19169,9 +19051,11 @@
         <v>-7381429.53570491</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>706.8</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -19206,9 +19090,11 @@
         <v>-7381929.24860491</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>703.7</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -19243,9 +19129,11 @@
         <v>-7381929.24860491</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>697.4</v>
+      </c>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -19280,9 +19168,11 @@
         <v>-7381434.01280491</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>697.4</v>
+      </c>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19317,9 +19207,11 @@
         <v>-7388337.226304909</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>704.8</v>
+      </c>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19354,9 +19246,11 @@
         <v>-7388690.141404909</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>704</v>
+      </c>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19391,9 +19285,11 @@
         <v>-7389185.377204909</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>698.7</v>
+      </c>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19428,9 +19324,11 @@
         <v>-7389184.627204909</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>697.6</v>
+      </c>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19465,9 +19363,11 @@
         <v>-7393694.072704909</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>703</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19502,9 +19402,11 @@
         <v>-7393692.651846719</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>697.7</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19539,9 +19441,11 @@
         <v>-7393802.651846719</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>703.8</v>
+      </c>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19576,9 +19480,11 @@
         <v>-7393375.651846719</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>702.7</v>
+      </c>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19613,9 +19519,11 @@
         <v>-7393070.604246719</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>705</v>
+      </c>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19650,9 +19558,11 @@
         <v>-7393467.808846719</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>706</v>
+      </c>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19687,9 +19597,11 @@
         <v>-7389808.990246719</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>705</v>
+      </c>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -20501,9 +20413,11 @@
         <v>-7412717.36488074</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>708.4</v>
+      </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20575,9 +20489,11 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>700.1</v>
+      </c>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20612,9 +20528,11 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>702.1</v>
+      </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20649,9 +20567,11 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>702.1</v>
+      </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20686,9 +20606,11 @@
         <v>-7410597.79088074</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>702.1</v>
+      </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20723,9 +20645,11 @@
         <v>-7410464.368380739</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>706</v>
+      </c>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20760,9 +20684,11 @@
         <v>-7409158.411380739</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>708.3</v>
+      </c>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20908,9 +20834,11 @@
         <v>-7393335.421522139</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>711</v>
+      </c>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20945,9 +20873,11 @@
         <v>-7430500.934363538</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>717</v>
+      </c>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20982,9 +20912,11 @@
         <v>-7421253.266063538</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>708.7</v>
+      </c>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -21019,9 +20951,11 @@
         <v>-7420665.775263539</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>713</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -21056,9 +20990,11 @@
         <v>-7426592.372063539</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>714</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21093,9 +21029,11 @@
         <v>-7430202.413363539</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>712.9</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21130,9 +21068,11 @@
         <v>-7430589.253263539</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>712</v>
+      </c>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21167,9 +21107,11 @@
         <v>-7430589.253263539</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>709.4</v>
+      </c>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21204,9 +21146,11 @@
         <v>-7429470.075763538</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>709.4</v>
+      </c>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21241,9 +21185,11 @@
         <v>-7429710.275763539</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>719</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -21315,9 +21261,11 @@
         <v>-7427100.768363538</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>712</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21352,9 +21300,11 @@
         <v>-7427239.768363538</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>717</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -21389,9 +21339,11 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>716</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21426,9 +21378,11 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>712</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21463,9 +21417,11 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>712</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21500,9 +21456,11 @@
         <v>-7428672.830463538</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>712</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21537,9 +21495,11 @@
         <v>-7428306.046563538</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>711</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21574,9 +21534,11 @@
         <v>-7428267.124063537</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>712</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21611,9 +21573,11 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>713.5</v>
+      </c>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21648,9 +21612,11 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>710.3</v>
+      </c>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21685,9 +21651,11 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>710.3</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21722,9 +21690,11 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>710.3</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21759,9 +21729,11 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>708</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21796,9 +21768,11 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>708</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21833,9 +21807,11 @@
         <v>-7428429.166198377</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>708</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21870,9 +21846,11 @@
         <v>-7429754.922998377</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>712</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -22277,9 +22255,11 @@
         <v>-7425636.732337957</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>712.5</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22536,9 +22516,11 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>714</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22573,9 +22555,11 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>713</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22610,9 +22594,11 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>713</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22647,9 +22633,11 @@
         <v>-7405954.788837958</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>713</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -23165,9 +23153,11 @@
         <v>-7379387.636037958</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>701</v>
+      </c>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -23202,9 +23192,11 @@
         <v>-7377898.221637958</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>701</v>
+      </c>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23239,9 +23231,11 @@
         <v>-7378520.162137957</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>701.1</v>
+      </c>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -23276,9 +23270,11 @@
         <v>-7371524.457937958</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I651" t="n">
+        <v>701</v>
+      </c>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -23313,9 +23309,11 @@
         <v>-7371334.064837958</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>703.9</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23350,9 +23348,11 @@
         <v>-7370939.364837958</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>709</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -23387,9 +23387,11 @@
         <v>-7370748.797337958</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>710.6</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23461,9 +23463,11 @@
         <v>-7372218.797337958</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>702.6</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23498,9 +23502,11 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>702.6</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23535,9 +23541,11 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>707.7</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23572,9 +23580,11 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>707.7</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23609,9 +23619,11 @@
         <v>-7374086.988237957</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>707.7</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23646,9 +23658,11 @@
         <v>-7373640.616137957</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>706.7</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23683,9 +23697,11 @@
         <v>-7373469.607037957</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>707.7</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23720,9 +23736,11 @@
         <v>-7373469.607037957</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>709.1</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23757,9 +23775,11 @@
         <v>-7373450.901537957</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>709.1</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23868,9 +23888,11 @@
         <v>-7376545.901537957</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>702</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23905,9 +23927,11 @@
         <v>-7376545.901537957</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>700</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23942,9 +23966,11 @@
         <v>-7376191.623295827</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>700</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -23979,9 +24005,11 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>703.4</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -24016,9 +24044,11 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>700.9</v>
+      </c>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -24053,9 +24083,11 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>700.9</v>
+      </c>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -24090,9 +24122,11 @@
         <v>-7373820.590395827</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>700.9</v>
+      </c>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -24127,9 +24161,11 @@
         <v>-7374133.590395827</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>703.1</v>
+      </c>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24164,9 +24200,11 @@
         <v>-7375706.061695827</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>700.5</v>
+      </c>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24201,9 +24239,11 @@
         <v>-7377660.857795827</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I676" t="n">
+        <v>700.3</v>
+      </c>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24238,9 +24278,11 @@
         <v>-7382117.198295827</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I677" t="n">
+        <v>700</v>
+      </c>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24275,9 +24317,11 @@
         <v>-7382047.568295827</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>697.5</v>
+      </c>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24312,9 +24356,11 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>697.7</v>
+      </c>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -24349,9 +24395,11 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>698.5</v>
+      </c>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24386,9 +24434,11 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I681" t="n">
+        <v>698.5</v>
+      </c>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24423,9 +24473,11 @@
         <v>-7386018.322695827</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I682" t="n">
+        <v>698.5</v>
+      </c>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24460,9 +24512,11 @@
         <v>-7385339.322795827</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24497,9 +24551,11 @@
         <v>-7384802.729095827</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>697.6</v>
+      </c>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24534,9 +24590,11 @@
         <v>-7385669.682495827</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>699.9</v>
+      </c>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24571,9 +24629,11 @@
         <v>-7383506.954895827</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I686" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24608,9 +24668,11 @@
         <v>-7383265.111695827</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>695.6</v>
+      </c>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24645,9 +24707,11 @@
         <v>-7390155.111695827</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>698.9</v>
+      </c>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
@@ -24682,9 +24746,11 @@
         <v>-7390003.636995827</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24719,9 +24785,11 @@
         <v>-7390003.636995827</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I690" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24756,9 +24824,11 @@
         <v>-7389896.956395827</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24793,9 +24863,11 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>699.7</v>
+      </c>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24830,9 +24902,11 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24867,9 +24941,11 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I694" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24904,9 +24980,11 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I695" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -24941,9 +25019,11 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I696" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -24978,9 +25058,11 @@
         <v>-7393883.610595827</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>695.8</v>
+      </c>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -25015,9 +25097,11 @@
         <v>-7393137.732178367</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>699</v>
+      </c>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -25030,6 +25114,6 @@
       <c r="M698" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BCD.xlsx
+++ b/BackTest/2020-01-22 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>41370.35314463002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>36460.53994463001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>18445.47905969001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>18665.87905969001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>18687.87905969001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>25898.66115969001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>28118.66115969001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>37583.85525969001</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>37206.93975969001</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>36952.31055969001</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>36972.31055969001</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>38164.84081684001</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>43817.66871143</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>56881.03521143</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>55382.79491684</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>99669.78528956998</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>98746.61558956998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>90588.62278956998</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>93139.67048956998</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>94262.68098956998</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>98187.62598956999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>94293.52418956999</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>94614.13100793998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>94614.13100793998</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>98125.15140793998</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>98622.57760793998</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>96953.76340793999</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>96973.76340793999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>102983.54341823</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>100020.23381823</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>100026.5552976</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>99976.5552976</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>99979.82234305001</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>95331.03124305001</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>89033.19916368001</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>86533.19916368001</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>86533.19916368001</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>84803.68386368001</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>76673.34236368001</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>72657.26616368002</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>72557.26616368002</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>72557.26616368002</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>70379.12356368001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>74254.54118780002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-7414435.530666429</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13189,17 +13189,11 @@
         <v>-7410708.82699416</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>698</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13228,17 +13222,11 @@
         <v>-7410556.91149416</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>697.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13271,11 +13259,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13304,17 +13288,11 @@
         <v>-7404418.64179416</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>697.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13343,17 +13321,11 @@
         <v>-7405888.64179416</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>697.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13382,17 +13354,11 @@
         <v>-7405887.64179416</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>689.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13421,17 +13387,11 @@
         <v>-7406349.11929416</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>697.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13460,17 +13420,11 @@
         <v>-7406707.52189416</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>697.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13499,17 +13453,11 @@
         <v>-7407415.99059416</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13538,17 +13486,11 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>689.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13577,17 +13519,11 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>688.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13616,17 +13552,11 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>688.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13655,17 +13585,11 @@
         <v>-7407824.99059416</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>688.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13694,17 +13618,11 @@
         <v>-7408170.40589416</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>688.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13733,17 +13651,11 @@
         <v>-7407543.179294161</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13772,17 +13684,11 @@
         <v>-7407534.61615919</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>688.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13811,17 +13717,11 @@
         <v>-7408535.61615919</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13850,17 +13750,11 @@
         <v>-7408535.61615919</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>688.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13889,17 +13783,11 @@
         <v>-7408594.068959191</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>688.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13928,17 +13816,11 @@
         <v>-7405113.58875919</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13967,17 +13849,11 @@
         <v>-7405113.58875919</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14006,17 +13882,11 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14045,17 +13915,11 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14084,17 +13948,11 @@
         <v>-7404919.08665919</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14123,17 +13981,11 @@
         <v>-7404910.08665919</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14162,17 +14014,11 @@
         <v>-7404902.12305919</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>692.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14201,17 +14047,11 @@
         <v>-7404901.12305919</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>694.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14240,17 +14080,11 @@
         <v>-7404902.555859189</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>695</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14279,17 +14113,11 @@
         <v>-7405638.902959189</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>694.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14318,17 +14146,11 @@
         <v>-7405638.902959189</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>693.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14357,17 +14179,11 @@
         <v>-7408507.145959189</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>693.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14396,17 +14212,11 @@
         <v>-7407505.42585919</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14435,17 +14245,11 @@
         <v>-7407504.42585919</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>694.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14474,17 +14278,11 @@
         <v>-7407648.09665919</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>694.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14513,17 +14311,11 @@
         <v>-7407648.28635919</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>694.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14552,17 +14344,11 @@
         <v>-7406647.56615919</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14591,17 +14377,11 @@
         <v>-7406647.56615919</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>694.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14630,17 +14410,11 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>694.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14669,17 +14443,11 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14708,17 +14476,11 @@
         <v>-7406656.40535919</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14747,17 +14509,11 @@
         <v>-7406653.76125919</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>690</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14786,17 +14542,11 @@
         <v>-7405137.25725919</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>693.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14825,17 +14575,11 @@
         <v>-7405237.25725919</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>694.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14864,17 +14608,11 @@
         <v>-7405361.68255919</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14903,17 +14641,11 @@
         <v>-7405231.48255919</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>688</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14942,17 +14674,11 @@
         <v>-7406314.98885919</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14981,17 +14707,11 @@
         <v>-7406314.98885919</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15020,17 +14740,11 @@
         <v>-7410533.431093019</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15067,7 +14781,7 @@
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L436" t="n">
@@ -15332,11 +15046,9 @@
         <v>-7406559.040493019</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>681.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15449,11 +15161,9 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>683.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15488,11 +15198,9 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15527,11 +15235,9 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>689</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15566,11 +15272,9 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15605,11 +15309,9 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15644,11 +15346,9 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>680.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15683,11 +15383,9 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>680.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15722,11 +15420,9 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>680.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15761,11 +15457,9 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15800,11 +15494,9 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15839,11 +15531,9 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15878,11 +15568,9 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>686.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15917,11 +15605,9 @@
         <v>-7403982.653593018</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>686.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15956,11 +15642,9 @@
         <v>-7403956.536593018</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>689.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15995,11 +15679,9 @@
         <v>-7403967.736593018</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>690.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16034,11 +15716,9 @@
         <v>-7403969.736593018</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>689.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16073,11 +15753,9 @@
         <v>-7403965.736593018</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>685.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16112,11 +15790,9 @@
         <v>-7403964.736593018</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>686</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16151,11 +15827,9 @@
         <v>-7403963.736593018</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>686.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16190,11 +15864,9 @@
         <v>-7403962.736593018</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>686.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16229,11 +15901,9 @@
         <v>-7403912.736593018</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>686.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16268,11 +15938,9 @@
         <v>-7403999.271593018</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16418,11 +16086,9 @@
         <v>-7406028.537293019</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>691.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16457,11 +16123,9 @@
         <v>-7405678.237293019</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>685.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16496,11 +16160,9 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16535,11 +16197,9 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>690.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16574,11 +16234,9 @@
         <v>-7416323.248293019</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>690.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16613,11 +16271,9 @@
         <v>-7416300.248293019</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>685.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16726,11 +16382,9 @@
         <v>-7411676.236753858</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>694.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16765,11 +16419,9 @@
         <v>-7411675.236753858</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>686.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16804,11 +16456,9 @@
         <v>-7411856.285953858</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>693</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16880,11 +16530,9 @@
         <v>-7411640.386904659</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16919,11 +16567,9 @@
         <v>-7411734.986904658</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>692.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -17217,11 +16863,9 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -17293,11 +16937,9 @@
         <v>-7413270.424704659</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -17332,11 +16974,9 @@
         <v>-7412968.112604659</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>695.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17371,11 +17011,9 @@
         <v>-7415208.112104659</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -18076,11 +17714,9 @@
         <v>-7372979.099394188</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>714.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
@@ -18115,11 +17751,9 @@
         <v>-7372979.099394188</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>713.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -18154,11 +17788,9 @@
         <v>-7373479.099394188</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>713.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -18193,11 +17825,9 @@
         <v>-7373681.759094188</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>712.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -18232,11 +17862,9 @@
         <v>-7373526.185394188</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -18271,11 +17899,9 @@
         <v>-7374006.763294188</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
@@ -18310,11 +17936,9 @@
         <v>-7374006.763294188</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
@@ -18349,11 +17973,9 @@
         <v>-7374812.078894189</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
@@ -18388,11 +18010,9 @@
         <v>-7375351.988394189</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>706.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
@@ -18427,11 +18047,9 @@
         <v>-7375203.688394189</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>705.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -18466,11 +18084,9 @@
         <v>-7375928.115594189</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>706.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -18505,11 +18121,9 @@
         <v>-7375867.115594189</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>705.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18544,11 +18158,9 @@
         <v>-7376692.038294189</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -18583,11 +18195,9 @@
         <v>-7375903.729694189</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>704.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -18622,11 +18232,9 @@
         <v>-7375983.729694189</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>705.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -18661,11 +18269,9 @@
         <v>-7375983.023394189</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>702.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -18700,11 +18306,9 @@
         <v>-7375983.023394189</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -18739,11 +18343,9 @@
         <v>-7376036.768994189</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -18778,11 +18380,9 @@
         <v>-7374871.248204909</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>702.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -18817,11 +18417,9 @@
         <v>-7375455.93270491</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>705.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -18856,11 +18454,9 @@
         <v>-7376678.35710491</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>701.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
@@ -18895,11 +18491,9 @@
         <v>-7376743.837504909</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -18934,11 +18528,9 @@
         <v>-7372971.69590491</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>698.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -18973,11 +18565,9 @@
         <v>-7381339.32590491</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -19012,11 +18602,9 @@
         <v>-7381338.61840491</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>697.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -19051,11 +18639,9 @@
         <v>-7381429.53570491</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>706.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -19090,11 +18676,9 @@
         <v>-7381929.24860491</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>703.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -19129,11 +18713,9 @@
         <v>-7381929.24860491</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>697.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
@@ -19168,11 +18750,9 @@
         <v>-7381434.01280491</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>697.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
@@ -19207,11 +18787,9 @@
         <v>-7388337.226304909</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>704.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
@@ -19246,11 +18824,9 @@
         <v>-7388690.141404909</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>704</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
@@ -19285,11 +18861,9 @@
         <v>-7389185.377204909</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>698.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
@@ -19324,11 +18898,9 @@
         <v>-7389184.627204909</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>697.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
@@ -19363,11 +18935,9 @@
         <v>-7393694.072704909</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>703</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -19402,11 +18972,9 @@
         <v>-7393692.651846719</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>697.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -19441,11 +19009,9 @@
         <v>-7393802.651846719</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>703.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
@@ -19480,11 +19046,9 @@
         <v>-7393375.651846719</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>702.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
@@ -19519,11 +19083,9 @@
         <v>-7393070.604246719</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
@@ -19558,11 +19120,9 @@
         <v>-7393467.808846719</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
@@ -19747,9 +19307,11 @@
         <v>-7387761.509146719</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>708.4</v>
+      </c>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -20413,11 +19975,9 @@
         <v>-7412717.36488074</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>708.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
@@ -20489,11 +20049,9 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>700.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
@@ -20528,11 +20086,9 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>702.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
@@ -20567,11 +20123,9 @@
         <v>-7412854.48938074</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>702.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
@@ -20606,11 +20160,9 @@
         <v>-7410597.79088074</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>702.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
@@ -20645,11 +20197,9 @@
         <v>-7410464.368380739</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>706</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
@@ -20684,11 +20234,9 @@
         <v>-7409158.411380739</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>708.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
@@ -20834,11 +20382,9 @@
         <v>-7393335.421522139</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
@@ -20873,11 +20419,9 @@
         <v>-7430500.934363538</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
@@ -20912,11 +20456,9 @@
         <v>-7421253.266063538</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>708.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
@@ -20951,11 +20493,9 @@
         <v>-7420665.775263539</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20990,11 +20530,9 @@
         <v>-7426592.372063539</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -21029,11 +20567,9 @@
         <v>-7430202.413363539</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>712.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -21068,11 +20604,9 @@
         <v>-7430589.253263539</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
@@ -21107,11 +20641,9 @@
         <v>-7430589.253263539</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>709.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
@@ -21146,11 +20678,9 @@
         <v>-7429470.075763538</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>709.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
@@ -21185,11 +20715,9 @@
         <v>-7429710.275763539</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>719</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -21261,11 +20789,9 @@
         <v>-7427100.768363538</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -21300,11 +20826,9 @@
         <v>-7427239.768363538</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -21339,11 +20863,9 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>716</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -21378,11 +20900,9 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -21417,11 +20937,9 @@
         <v>-7428412.730463538</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21456,11 +20974,9 @@
         <v>-7428672.830463538</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -21495,11 +21011,9 @@
         <v>-7428306.046563538</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>711</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -21534,11 +21048,9 @@
         <v>-7428267.124063537</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -21573,11 +21085,9 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>713.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
@@ -21612,11 +21122,9 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>710.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
@@ -21651,11 +21159,9 @@
         <v>-7428277.124063537</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>710.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -21690,11 +21196,9 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>710.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -21729,11 +21233,9 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21768,11 +21270,9 @@
         <v>-7428437.124063537</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21807,11 +21307,9 @@
         <v>-7428429.166198377</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21846,11 +21344,9 @@
         <v>-7429754.922998377</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>712</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -22255,11 +21751,9 @@
         <v>-7425636.732337957</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>712.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22516,11 +22010,9 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>714</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -22555,11 +22047,9 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -22594,11 +22084,9 @@
         <v>-7406268.324637958</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -22633,11 +22121,9 @@
         <v>-7405954.788837958</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>713</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -23153,11 +22639,9 @@
         <v>-7379387.636037958</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
@@ -23192,11 +22676,9 @@
         <v>-7377898.221637958</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
@@ -23231,11 +22713,9 @@
         <v>-7378520.162137957</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>701.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
@@ -23270,11 +22750,9 @@
         <v>-7371524.457937958</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>701</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
@@ -23309,11 +22787,9 @@
         <v>-7371334.064837958</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>703.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -23348,11 +22824,9 @@
         <v>-7370939.364837958</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>709</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -23387,11 +22861,9 @@
         <v>-7370748.797337958</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>710.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -23463,11 +22935,9 @@
         <v>-7372218.797337958</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>702.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -23502,11 +22972,9 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>702.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -23541,11 +23009,9 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -23580,11 +23046,9 @@
         <v>-7370671.810137957</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -23619,11 +23083,9 @@
         <v>-7374086.988237957</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -23658,11 +23120,9 @@
         <v>-7373640.616137957</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>706.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23697,11 +23157,9 @@
         <v>-7373469.607037957</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>707.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -23736,11 +23194,9 @@
         <v>-7373469.607037957</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>709.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -23775,11 +23231,9 @@
         <v>-7373450.901537957</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>709.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -23888,11 +23342,9 @@
         <v>-7376545.901537957</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>702</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -23927,11 +23379,9 @@
         <v>-7376545.901537957</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -23966,11 +23416,9 @@
         <v>-7376191.623295827</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -24005,11 +23453,9 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>703.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -24044,11 +23490,9 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>700.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
@@ -24083,11 +23527,9 @@
         <v>-7376279.176495827</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>700.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
@@ -24122,11 +23564,9 @@
         <v>-7373820.590395827</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>700.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
@@ -24161,11 +23601,9 @@
         <v>-7374133.590395827</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>703.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
@@ -24200,11 +23638,9 @@
         <v>-7375706.061695827</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>700.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
@@ -24239,11 +23675,9 @@
         <v>-7377660.857795827</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>700.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
@@ -24278,11 +23712,9 @@
         <v>-7382117.198295827</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>700</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
@@ -24317,11 +23749,9 @@
         <v>-7382047.568295827</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>697.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
@@ -24356,11 +23786,9 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>697.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
@@ -24395,11 +23823,9 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>698.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
@@ -24434,11 +23860,9 @@
         <v>-7379719.787595827</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>698.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
@@ -24473,11 +23897,9 @@
         <v>-7386018.322695827</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>698.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
@@ -24512,11 +23934,9 @@
         <v>-7385339.322795827</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -24590,11 +24010,9 @@
         <v>-7385669.682495827</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>699.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
@@ -24629,11 +24047,9 @@
         <v>-7383506.954895827</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>695.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
@@ -24668,11 +24084,9 @@
         <v>-7383265.111695827</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>695.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
@@ -24746,11 +24160,9 @@
         <v>-7390003.636995827</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>695.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24785,11 +24197,9 @@
         <v>-7390003.636995827</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
@@ -24824,11 +24234,9 @@
         <v>-7389896.956395827</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
@@ -24863,11 +24271,9 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>699.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
@@ -24902,11 +24308,9 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
@@ -24941,11 +24345,9 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
@@ -24980,11 +24382,9 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
@@ -25019,11 +24419,9 @@
         <v>-7393888.599495827</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
       <c r="K696" t="inlineStr">
         <is>
@@ -25058,11 +24456,9 @@
         <v>-7393883.610595827</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>695.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
       <c r="K697" t="inlineStr">
         <is>
@@ -25097,11 +24493,9 @@
         <v>-7393137.732178367</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>699</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
       <c r="K698" t="inlineStr">
         <is>
@@ -25114,6 +24508,6 @@
       <c r="M698" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest BCD.xlsx
+++ b/BackTest/2020-01-22 BackTest BCD.xlsx
@@ -550,7 +550,7 @@
         <v>41370.35314463002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>37203.95234463002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>36460.53994463001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>19485.47905969001</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>18445.47905969001</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>18665.87905969001</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>18687.87905969001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>21587.87905969001</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>22843.66115969001</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>25898.66115969001</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>28118.66115969001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>37583.85525969001</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>37206.93975969001</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>37231.93975969001</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>36952.31055969001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>36972.31055969001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>37143.12801684</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>37523.10641684</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>38164.84081684001</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>43168.26831143</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>43817.66871143</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>42045.85271143</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>56881.03521143</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>55333.54661684</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>55382.79491684</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>55368.76571684</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>82337.02845961999</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>82648.99733554</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>82647.80733554</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>96395.58122967</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>96385.58122967</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>97781.40742967</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>101918.88932967</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>117732.83655962</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>112511.07128957</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>112392.47288957</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>110258.17038957</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>109946.78858957</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>104571.62148957</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>99669.78528956998</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>98746.61558956998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>97936.61558956998</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>90588.62278956998</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>96953.76340793999</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>74254.54118780002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-7415465.436166429</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-7414435.530666429</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-7410547.323266429</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -15046,9 +15046,11 @@
         <v>-7406559.040493019</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>681.8</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15161,9 +15163,11 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>683.3</v>
+      </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
@@ -15198,9 +15202,11 @@
         <v>-7402783.540193019</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>689</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15272,9 +15278,11 @@
         <v>-7402871.140193018</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>686</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15309,9 +15317,11 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>686</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15346,9 +15356,11 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>680.1</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15383,9 +15395,11 @@
         <v>-7404531.113293018</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>680.1</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15420,9 +15434,11 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
-      </c>
-      <c r="I453" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>680.1</v>
+      </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15457,9 +15473,11 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
-      </c>
-      <c r="I454" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>685</v>
+      </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15494,9 +15512,11 @@
         <v>-7404487.501593018</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>685</v>
+      </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -15531,9 +15551,11 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>685</v>
+      </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -15568,9 +15590,11 @@
         <v>-7404247.453593018</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>686.4</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -15605,9 +15629,11 @@
         <v>-7403982.653593018</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>686.4</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -15642,9 +15668,11 @@
         <v>-7403956.536593018</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>689.9</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15679,9 +15707,11 @@
         <v>-7403967.736593018</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>690.9</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15716,9 +15746,11 @@
         <v>-7403969.736593018</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>689.9</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15753,9 +15785,11 @@
         <v>-7403965.736593018</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>685.6</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15790,9 +15824,11 @@
         <v>-7403964.736593018</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>686</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -15827,9 +15863,11 @@
         <v>-7403963.736593018</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>686.1</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -15864,9 +15902,11 @@
         <v>-7403962.736593018</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>686.2</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -15901,9 +15941,11 @@
         <v>-7403912.736593018</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>686.3</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -15938,9 +15980,11 @@
         <v>-7403999.271593018</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>693</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16086,9 +16130,11 @@
         <v>-7406028.537293019</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>691.9</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16123,9 +16169,11 @@
         <v>-7405678.237293019</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>685.1</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16160,9 +16208,11 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>687</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16197,9 +16247,11 @@
         <v>-7405671.754293019</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>690.9</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16271,9 +16323,11 @@
         <v>-7416300.248293019</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>685.2</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16308,9 +16362,11 @@
         <v>-7415788.986493018</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>690</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16345,9 +16401,11 @@
         <v>-7411019.391223438</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>693.1</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16382,9 +16440,11 @@
         <v>-7411676.236753858</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>694.4</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16419,9 +16479,11 @@
         <v>-7411675.236753858</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>686.1</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16456,9 +16518,11 @@
         <v>-7411856.285953858</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>693</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16530,9 +16594,11 @@
         <v>-7411640.386904659</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>692</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
@@ -16567,9 +16633,11 @@
         <v>-7411734.986904658</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>692.9</v>
+      </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
@@ -16604,9 +16672,11 @@
         <v>-7411104.939004659</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>692.8</v>
+      </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
@@ -16641,9 +16711,11 @@
         <v>-7415262.288504658</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
@@ -16678,9 +16750,11 @@
         <v>-7415262.288504658</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
@@ -16715,9 +16789,11 @@
         <v>-7412121.593504658</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -16752,9 +16828,11 @@
         <v>-7412121.593504658</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -16789,9 +16867,11 @@
         <v>-7411734.410804658</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -16826,9 +16906,11 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>697.1</v>
+      </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -16863,9 +16945,11 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -16900,9 +16984,11 @@
         <v>-7413621.896404658</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -16937,9 +17023,11 @@
         <v>-7413270.424704659</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>695.5</v>
+      </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -16974,9 +17062,11 @@
         <v>-7412968.112604659</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>695.7</v>
+      </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -17011,9 +17101,11 @@
         <v>-7415208.112104659</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>702</v>
+      </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -19157,11 +19249,9 @@
         <v>-7389808.990246719</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>705</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
@@ -19307,11 +19397,9 @@
         <v>-7387761.509146719</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>708.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -23971,11 +24059,9 @@
         <v>-7384802.729095827</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>697.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
@@ -24121,11 +24207,9 @@
         <v>-7390155.111695827</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>698.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
